--- a/public/data/profit/profit_table_swaziland.xlsx
+++ b/public/data/profit/profit_table_swaziland.xlsx
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-107.4</v>
+        <v>-71.8</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1326,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-54.03</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-105.22</v>
+        <v>-36.8</v>
       </c>
       <c r="L2" t="n">
-        <v>-84.78</v>
+        <v>-48.22</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-104.63</v>
+        <v>-35.94</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85.07</v>
+        <v>153.76</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-124.8</v>
+        <v>-56.11</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1365,16 +1365,16 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-103.19</v>
+        <v>-34.5</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-47.53</v>
+        <v>30.84</v>
       </c>
       <c r="Z2" t="n">
-        <v>-52.16</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="3">
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-148.18</v>
+        <v>-114.61</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-89.57</v>
+        <v>-37.4</v>
       </c>
       <c r="L3" t="n">
-        <v>-85.88</v>
+        <v>-52.71</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-83.24</v>
+        <v>-30.87</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.46</v>
+        <v>106.83</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-102.16</v>
+        <v>-49.79</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1445,16 +1445,16 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-81.01</v>
+        <v>-28.64</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-25.85</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-59.87</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="4">
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.27</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-36.43</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-22.8</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-17.72</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-133.93</v>
+        <v>-96.68</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-142.89</v>
+        <v>-60.79</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-155.52</v>
+        <v>-73.3</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>260.27</v>
+        <v>342.5</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-196.19</v>
+        <v>-113.96</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-156.56</v>
+        <v>-74.33</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-39.22</v>
+        <v>43.01</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-133.93</v>
+        <v>-96.68</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-142.89</v>
+        <v>-60.79</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-155.52</v>
+        <v>-73.3</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1747,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>260.27</v>
+        <v>342.5</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-196.19</v>
+        <v>-113.96</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>-156.56</v>
+        <v>-74.33</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-39.22</v>
+        <v>43.01</v>
       </c>
     </row>
     <row r="8">
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-22.91</v>
+        <v>3.73</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-20.02</v>
+        <v>11.43</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>160.48</v>
+        <v>191.5</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-124.05</v>
+        <v>-51.28</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-97.2</v>
+        <v>-17.32</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1194.64</v>
+        <v>1274.52</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-163.11</v>
+        <v>-83.23</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-124.17</v>
+        <v>-51.33</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>251.57</v>
+        <v>384.43</v>
       </c>
       <c r="Z9" t="n">
-        <v>41.38</v>
+        <v>121.26</v>
       </c>
     </row>
     <row r="10">
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-99.58</v>
+        <v>-66.58</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1966,19 +1966,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-45.9</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-85.27</v>
+        <v>-24.21</v>
       </c>
       <c r="L10" t="n">
-        <v>-46.93</v>
+        <v>-2.37</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-86.05</v>
+        <v>-26.67</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-12.81</v>
+        <v>85.41</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-93.27</v>
+        <v>-36.31</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>-82.56</v>
+        <v>-19.97</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-44.93</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-66.45</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="11">
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-88.04</v>
+        <v>-69.84</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-28.9</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-58.9</v>
+        <v>-23.98</v>
       </c>
       <c r="L11" t="n">
-        <v>-17.11</v>
+        <v>35.05</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-60.75</v>
+        <v>-33.66</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>16.62</v>
+        <v>186.64</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-64.78</v>
+        <v>-38.68</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-54.92</v>
+        <v>-11.1</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-43.7</v>
+        <v>15.01</v>
       </c>
     </row>
     <row r="12">
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-97.72</v>
+        <v>-53.29</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2126,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-74.2</v>
+        <v>-44.21</v>
       </c>
       <c r="K12" t="n">
-        <v>-133.9</v>
+        <v>-45.8</v>
       </c>
       <c r="L12" t="n">
-        <v>-41.88</v>
+        <v>8.78</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-126.28</v>
+        <v>-37.04</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>366.98</v>
+        <v>480.98</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2156,25 +2156,25 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-154.15</v>
+        <v>-66.99</v>
       </c>
       <c r="U12" t="n">
-        <v>-103.32</v>
+        <v>8.26</v>
       </c>
       <c r="V12" t="n">
-        <v>-30.19</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>-131.81</v>
+        <v>-43.54</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>96.17</v>
+        <v>486.29</v>
       </c>
       <c r="Z12" t="n">
-        <v>-54.69</v>
+        <v>39.92</v>
       </c>
     </row>
     <row r="13">
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-117.5</v>
+        <v>-94.73</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -2206,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-38.1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-67.34</v>
+        <v>-35.96</v>
       </c>
       <c r="L13" t="n">
-        <v>-33.78</v>
+        <v>7.26</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-67.39</v>
+        <v>-45.08</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.43</v>
+        <v>124.15</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-70.5</v>
+        <v>-45.32</v>
       </c>
       <c r="U13" t="n">
-        <v>-58.39</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-64.05</v>
+        <v>-26.58</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-3.81</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-51.18</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="14">
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-146.59</v>
+        <v>-105.9</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-63.14</v>
+        <v>-34.61</v>
       </c>
       <c r="K14" t="n">
-        <v>-97.4</v>
+        <v>-32.21</v>
       </c>
       <c r="L14" t="n">
-        <v>18.13</v>
+        <v>57.67</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-105.06</v>
+        <v>-41.29</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.95</v>
+        <v>182.33</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-110.08</v>
+        <v>-46.79</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -2325,16 +2325,16 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-92.48</v>
+        <v>-26.32</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-40.36</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>-67.05</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="15">
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-58.5</v>
+        <v>-34.9</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-21.06</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-27.81</v>
+        <v>-1.94</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-20.62</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-11.65</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-21.13</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>-23.5</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-20.95</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>-20.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-72.21</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-72.47</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-62.81</v>
+        <v>-26.4</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-60.9</v>
+        <v>-22.11</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-57.89</v>
+        <v>-20.81</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-58.68</v>
+        <v>-23.23</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-93.34</v>
+        <v>-31.13</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-93.4</v>
+        <v>-35.49</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-47.52</v>
+        <v>-25.66</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-46.7</v>
+        <v>-23.02</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-77.59</v>
+        <v>-27.55</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-79.09</v>
+        <v>-31.22</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-61.89</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-62.56</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-34.58</v>
+        <v>-23.51</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -3169,16 +3169,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-13.4</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.52</v>
+        <v>-24.01</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-13.4</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-13.41</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-13.41</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-13.4</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>-13.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-49.32</v>
+        <v>-36.27</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3246,19 +3246,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>-14.21</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>-23.34</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-47.71</v>
+        <v>-32.86</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-23.79</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>-23.97</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-23.97</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -3285,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-23.73</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>-21.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-62.5</v>
+        <v>-2.67</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-71.93</v>
+        <v>-12.1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-48.22</v>
+        <v>-4.32</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-55.1</v>
+        <v>-11.21</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-66.57</v>
+        <v>-29.2</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3489,16 +3489,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-22.52</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-92.94</v>
+        <v>-55.57</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-22.64</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-23.63</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-24.24</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-20.96</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>-20.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-59.79</v>
+        <v>-45.04</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3566,19 +3566,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-9.98</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>-16.79</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-56.12</v>
+        <v>-35.74</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-16.23</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>-8.49</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-18.59</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3605,16 +3605,16 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>-14.08</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>-8.91</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>-14.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-78</v>
+        <v>-35.27</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3646,19 +3646,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-26.73</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-72.23</v>
+        <v>-25.03</v>
       </c>
       <c r="L31" t="n">
-        <v>-79.26</v>
+        <v>-36.53</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-72.81</v>
+        <v>-25.45</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-43.96</v>
+        <v>32.16</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-79.66</v>
+        <v>-37.77</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3685,16 +3685,16 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-68.39</v>
+        <v>-18.55</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-25.39</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>-58.67</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="32">
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-44.84</v>
+        <v>-4.64</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3732,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-50.06</v>
+        <v>-14.37</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-65.79</v>
+        <v>-24.37</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3809,16 +3809,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>-28.4</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-73.96</v>
+        <v>-40.19</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-28.3</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>-28.64</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-29.25</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>-28.17</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>-26.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>-32.7</v>
+        <v>16.64</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3886,19 +3886,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-8.57</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-69.02</v>
+        <v>-55.05</v>
       </c>
       <c r="L34" t="n">
-        <v>-126.94</v>
+        <v>-79.46</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-83.76</v>
+        <v>-24.47</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>34.24</v>
+        <v>218.56</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3916,25 +3916,25 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-96.04</v>
+        <v>-47.51</v>
       </c>
       <c r="U34" t="n">
-        <v>-65.59</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-43.62</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-24.84</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>-70.01</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="35">
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-54.94</v>
+        <v>-4.32</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-61.2</v>
+        <v>-11.21</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>65.08</v>
+        <v>101.67</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -4126,19 +4126,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-21.86</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-109.08</v>
+        <v>-49.58</v>
       </c>
       <c r="L37" t="n">
-        <v>-147.7</v>
+        <v>-112.11</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-115.81</v>
+        <v>-47.77</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.9</v>
+        <v>170.94</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-166</v>
+        <v>-97.96</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4165,16 +4165,16 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-85.28</v>
+        <v>-28.1</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>74.33</v>
+        <v>296.01</v>
       </c>
       <c r="Z37" t="n">
-        <v>-40.85</v>
+        <v>27.19</v>
       </c>
     </row>
     <row r="38">
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-47.79</v>
+        <v>-18.39</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -4209,16 +4209,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-47.41</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-43.74</v>
+        <v>-9.79</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-47.31</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>-44.62</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-48.12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-46.92</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>-46.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-29.74</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-31.6</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-64.59</v>
+        <v>-16.25</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4366,19 +4366,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-8.57</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>-32.09</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-102.14</v>
+        <v>-54.11</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-31.7</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-8.45</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -4396,25 +4396,25 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-33.58</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-43.99</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-30.85</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>-8.28</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>-29.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4434,7 +4434,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-35.44</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-36.85</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>-48.59</v>
+        <v>-23.92</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4529,16 +4529,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>-16.72</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-66.69</v>
+        <v>-54.16</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>-16.85</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>-17.47</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>-17.85</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>-15.89</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>-15.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-65.15</v>
+        <v>-19.08</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4609,16 +4609,16 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-38.8</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-73.68</v>
+        <v>-33.72</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-36</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -4627,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.17</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -4636,16 +4636,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-38.27</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>-61.97</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>-39.14</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4654,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>-32.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-43.43</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-42.38</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4754,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>-52.61</v>
+        <v>-33.25</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4769,16 +4769,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>-25.21</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-50.29</v>
+        <v>-27.3</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-25.51</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>-25.71</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>-25.44</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>-25.44</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>-24.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-47.63</v>
+        <v>-33.9</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4849,16 +4849,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>-22.65</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-41.92</v>
+        <v>-22.21</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>-22.7</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>-22.78</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>-22.65</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4894,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="Z46" t="n">
-        <v>-22.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-62.96</v>
+        <v>-39.3</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -5009,16 +5009,16 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>-25.39</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>-57.13</v>
+        <v>-31.4</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>-25.47</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>-25.47</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>-25.33</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>-24.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>-66.35</v>
+        <v>-35.34</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -5086,19 +5086,19 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-14.21</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>-20.86</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>-61.21</v>
+        <v>-28.41</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>-21.2</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>-21.29</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>-41.01</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>-21.03</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>-19.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -5154,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>-61.66</v>
+        <v>-37.23</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -5166,19 +5166,19 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-14.21</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>-27.38</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>-58.09</v>
+        <v>-31.2</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>-28.12</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>-28.37</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>-28.52</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>-28.04</v>
+        <v>0</v>
       </c>
       <c r="X50" t="n">
         <v>0</v>
@@ -5214,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="Z50" t="n">
-        <v>-24.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-78.83</v>
+        <v>-30.7</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -5249,16 +5249,16 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>-27.15</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>-79.26</v>
+        <v>-32.18</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>-27.14</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>-27.35</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>-40.39</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>-26.95</v>
+        <v>0</v>
       </c>
       <c r="X51" t="n">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>-25.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>-41.17</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -5329,16 +5329,16 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>-15.3</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>-37.68</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>-15.4</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>-15.46</v>
+        <v>0</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>-15.28</v>
+        <v>0</v>
       </c>
       <c r="X52" t="n">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>-14.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -5394,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-41.61</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>-40.21</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -5474,7 +5474,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-33</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -5489,16 +5489,16 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>-15.45</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>-31.91</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>-15.72</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -5507,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>-15.96</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>-16.03</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>-16.03</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
         <v>0</v>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="Z54" t="n">
-        <v>-13.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>-49.81</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -5649,16 +5649,16 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>-10.2</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>-40.44</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>-10.01</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -5676,16 +5676,16 @@
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>-8.81</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>-8.4</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>-9.45</v>
+        <v>0</v>
       </c>
       <c r="X56" t="n">
         <v>0</v>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>-9.34</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
